--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1386,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1421,28 +1433,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1479,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1750,10 +1762,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1797,28 +1809,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1843,28 +1855,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2213,10 +2225,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2260,28 +2272,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2306,28 +2318,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2560,10 +2572,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2607,28 +2619,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2653,28 +2665,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2820,10 +2832,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2867,28 +2879,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2913,28 +2925,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3080,10 +3092,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3127,28 +3139,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3173,28 +3185,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3427,10 +3439,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3474,28 +3486,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3520,28 +3532,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3745,10 +3757,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3792,28 +3804,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3838,28 +3850,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4034,10 +4046,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4081,28 +4093,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4127,28 +4139,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4265,10 +4277,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4312,28 +4324,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4358,28 +4370,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4554,10 +4566,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
+      <c r="J153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4601,28 +4613,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4647,28 +4659,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4785,10 +4797,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4832,28 +4844,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4878,28 +4890,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4958,10 +4970,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
+      <c r="J167" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5005,28 +5017,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5051,28 +5063,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5189,10 +5201,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5236,28 +5248,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5282,28 +5294,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5391,10 +5403,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
+      <c r="J182" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5438,28 +5450,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5484,28 +5496,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5593,10 +5605,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="J189" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5640,28 +5652,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5686,28 +5698,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
